--- a/excel_params/all_strain.xlsx
+++ b/excel_params/all_strain.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\大四下\she_shishkebab\excel_params\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F419B53-E90B-46C2-9848-331925CF409E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11760" windowWidth="20730" xWindow="-120" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="2" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="11" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Dn</t>
   </si>
@@ -49,33 +45,30 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <family val="3"/>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -90,43 +83,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -392,16 +368,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetData/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -427,190 +426,468 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
         <v>114.0284340065363</v>
       </c>
-      <c r="B2">
-        <v>199.84220815189769</v>
-      </c>
-      <c r="C2">
-        <v>37.786971452415372</v>
-      </c>
-      <c r="D2">
+      <c r="B2" t="n">
+        <v>199.8422081518977</v>
+      </c>
+      <c r="C2" t="n">
+        <v>37.78697145241537</v>
+      </c>
+      <c r="D2" t="n">
         <v>133.0130109015698</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>11.92275529354737</v>
       </c>
-      <c r="F2">
-        <v>9.9596146033208127E-2</v>
-      </c>
-      <c r="G2">
-        <v>0.30400454499669588</v>
-      </c>
-      <c r="H2">
+      <c r="F2" t="n">
+        <v>0.685932861127056</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3040045449966959</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
         <v>109.9691214364944</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>214.9385931090699</v>
       </c>
-      <c r="C3">
-        <v>40.103354599289517</v>
-      </c>
-      <c r="D3">
-        <v>25.882723692367971</v>
-      </c>
-      <c r="E3">
+      <c r="C3" t="n">
+        <v>40.10335459928952</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.88272369236797</v>
+      </c>
+      <c r="E3" t="n">
         <v>9.098110368391886</v>
       </c>
-      <c r="F3">
-        <v>6.3908565787519106E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.32282446876109311</v>
-      </c>
-      <c r="H3">
+      <c r="F3" t="n">
+        <v>0.705129265986187</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3228244687610931</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>70.534125148769135</v>
-      </c>
-      <c r="B4">
-        <v>183.9830522535664</v>
-      </c>
-      <c r="C4">
-        <v>59.560623800854053</v>
-      </c>
-      <c r="D4">
-        <v>3.431083081518898</v>
-      </c>
-      <c r="E4">
-        <v>15.942007892852009</v>
-      </c>
-      <c r="F4">
-        <v>3.0822548888685779E-2</v>
-      </c>
-      <c r="G4">
-        <v>0.28331447653934783</v>
-      </c>
-      <c r="H4">
+    <row r="4" spans="1:8">
+      <c r="A4" t="n">
+        <v>82.45984391388509</v>
+      </c>
+      <c r="B4" t="n">
+        <v>196.4664222592968</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59.22679735723224</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.475606521333375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.39333065174567</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8672984873406399</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2779935219473162</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>80.699513639922287</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:8">
+      <c r="A5" t="n">
+        <v>98.17250211634611</v>
+      </c>
+      <c r="B5" t="n">
+        <v>170.8730956256194</v>
+      </c>
+      <c r="C5" t="n">
+        <v>62.18618042488082</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.299511629316298</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.64287865844759</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8525465942517794</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5972944274813775</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="n">
+        <v>80.69951363992229</v>
+      </c>
+      <c r="B6" t="n">
         <v>154.5054687584738</v>
       </c>
-      <c r="C5">
-        <v>65.030957632058133</v>
-      </c>
-      <c r="D5">
-        <v>9.9647033906585527</v>
-      </c>
-      <c r="E5">
-        <v>23.738411990342289</v>
-      </c>
-      <c r="F5">
-        <v>6.9010307302511578E-2</v>
-      </c>
-      <c r="G5">
-        <v>0.43250388627882869</v>
-      </c>
-      <c r="H5">
+      <c r="C6" t="n">
+        <v>65.03095763205813</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.964703390658553</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.73841199034229</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9312175547631539</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4325038862788287</v>
+      </c>
+      <c r="H6" t="n">
         <v>1.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>67.061587643224527</v>
-      </c>
-      <c r="B6">
+    <row r="7" spans="1:8">
+      <c r="A7" t="n">
+        <v>67.06158764322453</v>
+      </c>
+      <c r="B7" t="n">
         <v>127.5990779302123</v>
       </c>
-      <c r="C6">
-        <v>66.251064681572601</v>
-      </c>
-      <c r="D6">
-        <v>3.3452052121570168</v>
-      </c>
-      <c r="E6">
-        <v>29.357900665308691</v>
-      </c>
-      <c r="F6">
-        <v>7.1417496277318776E-2</v>
-      </c>
-      <c r="G6">
-        <v>0.49128872953291203</v>
-      </c>
-      <c r="H6">
+      <c r="C7" t="n">
+        <v>66.2510646815726</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.345205212157017</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29.35790066530869</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7713568084843652</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.491288729532912</v>
+      </c>
+      <c r="H7" t="n">
         <v>1.6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>66.939445826681947</v>
-      </c>
-      <c r="B7">
-        <v>127.57210549510749</v>
-      </c>
-      <c r="C7">
-        <v>63.874117790538492</v>
-      </c>
-      <c r="D7">
-        <v>4.4601680542697757</v>
-      </c>
-      <c r="E7">
-        <v>27.371014979431848</v>
-      </c>
-      <c r="F7">
-        <v>7.0942320050970342E-2</v>
-      </c>
-      <c r="G7">
-        <v>0.44900666286937307</v>
-      </c>
-      <c r="H7">
+    <row r="8" spans="1:8">
+      <c r="A8" t="n">
+        <v>66.93944582668195</v>
+      </c>
+      <c r="B8" t="n">
+        <v>127.5721054951075</v>
+      </c>
+      <c r="C8" t="n">
+        <v>63.87411779053849</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.460168054269776</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.37101497943185</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7465443912623052</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4490066628693731</v>
+      </c>
+      <c r="H8" t="n">
         <v>1.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>43.001339754217213</v>
-      </c>
-      <c r="B8">
-        <v>67.892063032987195</v>
-      </c>
-      <c r="C8">
+    <row r="9" spans="1:8">
+      <c r="A9" t="n">
+        <v>43.00133975421721</v>
+      </c>
+      <c r="B9" t="n">
+        <v>67.8920630329872</v>
+      </c>
+      <c r="C9" t="n">
         <v>55.58</v>
       </c>
-      <c r="D8">
+      <c r="D9" t="n">
         <v>8.15</v>
       </c>
-      <c r="E8">
-        <v>29.011972592747391</v>
-      </c>
-      <c r="F8">
-        <v>0.1440846100777507</v>
-      </c>
-      <c r="G8">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="H8">
+      <c r="E9" t="n">
+        <v>29.01197259274739</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7664644027908796</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="H9" t="n">
         <v>2.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="n">
+        <v>114.0284340065363</v>
+      </c>
+      <c r="B2" t="n">
+        <v>199.8422081518977</v>
+      </c>
+      <c r="C2" t="n">
+        <v>37.78697145241537</v>
+      </c>
+      <c r="D2" t="n">
+        <v>133.0130109015698</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11.92275529354737</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.685932861127056</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.3040045449966959</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="n">
+        <v>109.9691214364944</v>
+      </c>
+      <c r="B3" t="n">
+        <v>214.9385931090699</v>
+      </c>
+      <c r="C3" t="n">
+        <v>40.10335459928952</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25.88272369236797</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.098110368391886</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.705129265986187</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.3228244687610931</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="n">
+        <v>82.45984391388509</v>
+      </c>
+      <c r="B4" t="n">
+        <v>196.4664222592968</v>
+      </c>
+      <c r="C4" t="n">
+        <v>59.22679735723224</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.475606521333375</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16.39333065174567</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.8672984873406399</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.2779935219473162</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="n">
+        <v>98.17250211634611</v>
+      </c>
+      <c r="B5" t="n">
+        <v>170.8730956256194</v>
+      </c>
+      <c r="C5" t="n">
+        <v>62.18618042488082</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.299511629316298</v>
+      </c>
+      <c r="E5" t="n">
+        <v>21.64287865844759</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.8525465942517794</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.5972944274813775</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="n">
+        <v>80.69951363992229</v>
+      </c>
+      <c r="B6" t="n">
+        <v>154.5054687584738</v>
+      </c>
+      <c r="C6" t="n">
+        <v>65.03095763205813</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.964703390658553</v>
+      </c>
+      <c r="E6" t="n">
+        <v>23.73841199034229</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9312175547631539</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4325038862788287</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="n">
+        <v>67.06158764322453</v>
+      </c>
+      <c r="B7" t="n">
+        <v>127.5990779302123</v>
+      </c>
+      <c r="C7" t="n">
+        <v>66.2510646815726</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.345205212157017</v>
+      </c>
+      <c r="E7" t="n">
+        <v>29.35790066530869</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.7713568084843652</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.491288729532912</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="n">
+        <v>66.93944582668195</v>
+      </c>
+      <c r="B8" t="n">
+        <v>127.5721054951075</v>
+      </c>
+      <c r="C8" t="n">
+        <v>63.87411779053849</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.460168054269776</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.37101497943185</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.7465443912623052</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.4490066628693731</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="n">
+        <v>43.00133975421721</v>
+      </c>
+      <c r="B9" t="n">
+        <v>67.8920630329872</v>
+      </c>
+      <c r="C9" t="n">
+        <v>55.58</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29.01197259274739</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.7664644027908796</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.097</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>